--- a/biology/Biochimie/Beta-propeller/Beta-propeller.xlsx
+++ b/biology/Biochimie/Beta-propeller/Beta-propeller.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En biologie structurelle, un β-propeller est une structure tertiaire de certaines protéines caractérisée par l'arrangement de quatre à huit feuillets β en forme de lame autour d'un axe central selon une configuration toroïdale. Chaque feuillet β est typiquement formé de quatre brins β antiparallèles tordus de telle sorte que les premier et dernier brins sont presque perpendiculaires l'un à l'autre. Une étude visant à établir les principes structuraux des β-propellers a montré que la structure à sept lames est la plus favorable d'un point de vue géométrique[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En biologie structurelle, un β-propeller est une structure tertiaire de certaines protéines caractérisée par l'arrangement de quatre à huit feuillets β en forme de lame autour d'un axe central selon une configuration toroïdale. Chaque feuillet β est typiquement formé de quatre brins β antiparallèles tordus de telle sorte que les premier et dernier brins sont presque perpendiculaires l'un à l'autre. Une étude visant à établir les principes structuraux des β-propellers a montré que la structure à sept lames est la plus favorable d'un point de vue géométrique.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Exemples</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Par exemple, la neuraminidase virale des virus de la grippe est une protéine à β-propeller à six lames dont la forme active est un tétramère. C'est l'une des deux protéines de l'enveloppe virale, qui catalyse le clivage de molécules d'acide sialique à partir de protéines de la membrane plasmique de cellules saines pour y faciliter l'entrée de nouveaux virions.
 La protéine UVR8 (en) des plantes, qui détecte les UV-B possède un β-propeller à sept lames dimérisé qui se dissocie à la suite de l'absorption d'UV-B.
-Les répétitions WD40, également appelées répétitions β-transducine, sont de courts fragments présents avant tout chez les eucaryotes[3],[4]. Elles sont souvent assemblées en unités de quatre à seize répétitions en tandem pour former un domaine structurel critique pour les interactions protéine-protéine.
-Un β-propeller du récepteur de LDL constitue un composant critique de cette protéine et intervient dans un changement conformationnel induit par une variation de pH : à pH neutre, la protéine présente une conformation linéaire étirée qui lui permet de se lier à des ligands (PCSK9) ; à pH faible (acide), la conformation linéaire évolue vers une formation en épingle à cheveux dont le β-propeller bloque la liaison aux ligands[5],[6].
+Les répétitions WD40, également appelées répétitions β-transducine, sont de courts fragments présents avant tout chez les eucaryotes,. Elles sont souvent assemblées en unités de quatre à seize répétitions en tandem pour former un domaine structurel critique pour les interactions protéine-protéine.
+Un β-propeller du récepteur de LDL constitue un composant critique de cette protéine et intervient dans un changement conformationnel induit par une variation de pH : à pH neutre, la protéine présente une conformation linéaire étirée qui lui permet de se lier à des ligands (PCSK9) ; à pH faible (acide), la conformation linéaire évolue vers une formation en épingle à cheveux dont le β-propeller bloque la liaison aux ligands,.
 </t>
         </is>
       </c>
